--- a/BAOCAO/Testcase/MOBILESHOP_Test cases.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_Test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -78,12 +78,6 @@
     <t>(TeoVN, 123), (TeoNV, 321)</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Đã fix</t>
-  </si>
-  <si>
     <t>8 mặt hàng mới nhất</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>Thông báo sai thông tin đăng nhập</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -203,7 +200,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -223,7 +220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -682,45 +678,51 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
@@ -735,7 +737,9 @@
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -759,8 +763,8 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,9 +778,11 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
@@ -791,8 +797,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11">
-        <v>0.3</v>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -808,7 +814,9 @@
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -823,9 +831,7 @@
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -844,6 +850,83 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/BAOCAO/Testcase/MOBILESHOP_Test cases.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_Test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -106,6 +106,146 @@
   </si>
   <si>
     <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Bảng CTGH</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Điều chỉnh số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhập thông tin nhận hàng</t>
+  </si>
+  <si>
+    <t>Xác nhận đặt hàng</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm mới</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Duyệt đơn hàng</t>
+  </si>
+  <si>
+    <t>Phân công giao hàng</t>
+  </si>
+  <si>
+    <t>Quản lý đặt hàng</t>
+  </si>
+  <si>
+    <t>Theo dõi đơn hàng</t>
+  </si>
+  <si>
+    <t>Hủy đơn hàng</t>
+  </si>
+  <si>
+    <t>Tạo đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Quản lý nhập hàng</t>
+  </si>
+  <si>
+    <t>Lập phiếu nhập</t>
+  </si>
+  <si>
+    <t>Yêu cầu đăng nhập, 
+Thêm thành công thì sản phẩm hiển thị trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Cột SoLuong</t>
+  </si>
+  <si>
+    <t>Sản phẩm không còn trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm thay đổi theo điều chỉnh</t>
+  </si>
+  <si>
+    <t>Bảng DonHang</t>
+  </si>
+  <si>
+    <t>Thông tin người nhận hàng</t>
+  </si>
+  <si>
+    <t>Bảng CTDH</t>
+  </si>
+  <si>
+    <t>Thông báo đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>Các đơn hàng của khách hàng</t>
+  </si>
+  <si>
+    <t>Cột TrangThai</t>
+  </si>
+  <si>
+    <t>Đơn hàng chuyển sang trạng thái "Đã hủy"</t>
+  </si>
+  <si>
+    <t>Đơn hàng chuyển sang trạng thái "Đã duyệt"</t>
+  </si>
+  <si>
+    <t>Bảng LoaiSanPham</t>
+  </si>
+  <si>
+    <t>Thông báo thêm sản phẩm thành công
+Hiển thị sản phẩm vừa thêm</t>
+  </si>
+  <si>
+    <t>Hiển thị sản phẩm với thông tin vừa thay đổi</t>
+  </si>
+  <si>
+    <t>Cột NhanVienGiao</t>
+  </si>
+  <si>
+    <t>Đơn hàng cập nhật nhân viên giao</t>
+  </si>
+  <si>
+    <t>Bảng DatHang</t>
+  </si>
+  <si>
+    <t>Thông báo tạo đơn đặt hàng thành công
+Hiển thị đơn đặt hàng vừa tạo</t>
+  </si>
+  <si>
+    <t>Bảng PhieuNhap</t>
+  </si>
+  <si>
+    <t>Thông báo tạo phiếu nhập thành công
+Hiển thị phiếu nhập vừa tạo
+Cập nhật số lượng sản phẩm sau khi nhập</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập thông tin</t>
+  </si>
+  <si>
+    <t>Để trống thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Thêm sảm phẩm đã tồn tại</t>
+  </si>
+  <si>
+    <t>Thông báo sản phẩm đã tồn tại</t>
+  </si>
+  <si>
+    <t>DT SSA = DT SSA</t>
   </si>
 </sst>
 </file>
@@ -200,25 +340,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -631,304 +784,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8">
+    <row r="3" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
         <v>1.2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9">
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
         <v>1.3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
         <v>1.4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
         <v>2.1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+    <row r="21" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+    <row r="25" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="10"/>
+      <c r="C39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B40" s="10"/>
+      <c r="C40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BAOCAO/Testcase/MOBILESHOP_Test cases.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_Test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -39,27 +39,12 @@
     <t>KẾT QUẢ MONG ĐỢI</t>
   </si>
   <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Để trống</t>
-  </si>
-  <si>
     <t>Sai username, mật khẩu</t>
   </si>
   <si>
     <t>Đăng nhập đúng</t>
   </si>
   <si>
-    <t>Yêu cầu nhập</t>
-  </si>
-  <si>
-    <t>Chuyển về trang web yêu cầu trước đó</t>
-  </si>
-  <si>
-    <t>TeoNV, 123</t>
-  </si>
-  <si>
     <t>Quản lý giỏ hàng</t>
   </si>
   <si>
@@ -75,9 +60,6 @@
     <t>Đúng bản thiết kế</t>
   </si>
   <si>
-    <t>(TeoVN, 123), (TeoNV, 321)</t>
-  </si>
-  <si>
     <t>8 mặt hàng mới nhất</t>
   </si>
   <si>
@@ -120,9 +102,6 @@
     <t>Điều chỉnh số lượng sản phẩm</t>
   </si>
   <si>
-    <t>Nhập thông tin nhận hàng</t>
-  </si>
-  <si>
     <t>Xác nhận đặt hàng</t>
   </si>
   <si>
@@ -130,9 +109,6 @@
   </si>
   <si>
     <t>Thêm sản phẩm mới</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa thông tin sản phẩm</t>
   </si>
   <si>
     <t>Quản lý đơn hàng</t>
@@ -169,34 +145,16 @@
     <t>Cột SoLuong</t>
   </si>
   <si>
-    <t>Sản phẩm không còn trong giỏ hàng</t>
-  </si>
-  <si>
     <t>Số lượng sản phẩm thay đổi theo điều chỉnh</t>
   </si>
   <si>
     <t>Bảng DonHang</t>
   </si>
   <si>
-    <t>Thông tin người nhận hàng</t>
-  </si>
-  <si>
     <t>Bảng CTDH</t>
   </si>
   <si>
-    <t>Thông báo đặt hàng thành công</t>
-  </si>
-  <si>
-    <t>Các đơn hàng của khách hàng</t>
-  </si>
-  <si>
     <t>Cột TrangThai</t>
-  </si>
-  <si>
-    <t>Đơn hàng chuyển sang trạng thái "Đã hủy"</t>
-  </si>
-  <si>
-    <t>Đơn hàng chuyển sang trạng thái "Đã duyệt"</t>
   </si>
   <si>
     <t>Bảng LoaiSanPham</t>
@@ -206,23 +164,11 @@
 Hiển thị sản phẩm vừa thêm</t>
   </si>
   <si>
-    <t>Hiển thị sản phẩm với thông tin vừa thay đổi</t>
-  </si>
-  <si>
-    <t>Cột NhanVienGiao</t>
-  </si>
-  <si>
-    <t>Đơn hàng cập nhật nhân viên giao</t>
-  </si>
-  <si>
     <t>Bảng DatHang</t>
   </si>
   <si>
     <t>Thông báo tạo đơn đặt hàng thành công
 Hiển thị đơn đặt hàng vừa tạo</t>
-  </si>
-  <si>
-    <t>Bảng PhieuNhap</t>
   </si>
   <si>
     <t>Thông báo tạo phiếu nhập thành công
@@ -230,9 +176,6 @@
 Cập nhật số lượng sản phẩm sau khi nhập</t>
   </si>
   <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
     <t>Yêu cầu nhập thông tin</t>
   </si>
   <si>
@@ -245,7 +188,271 @@
     <t>Thông báo sản phẩm đã tồn tại</t>
   </si>
   <si>
-    <t>DT SSA = DT SSA</t>
+    <t>usename: anhdat
+mật khẩu: 123456</t>
+  </si>
+  <si>
+    <t>Sai: usename: anhda, mật khẩu: 123
+Đúng: usename: anhdat, mật khẩu: 123456</t>
+  </si>
+  <si>
+    <t>Đánh giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Điện thoại SamSung A23</t>
+  </si>
+  <si>
+    <t>Chuyển về trang thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Thông tin nhận hàng</t>
+  </si>
+  <si>
+    <t>Thông tin người nhận hàng ban đầu được lấy từ thông tin ban đầu của khách hàng. Khách hàng có thể điều chỉnh thông tin nhận hàng nếu muốn.</t>
+  </si>
+  <si>
+    <t>Thông báo đặt hàng thành công.
+Đơn hàng sẽ được hiển thị trong mục "Quản lý đơn hàng" của khách hàng.</t>
+  </si>
+  <si>
+    <t>Nếu đơn hàng chưa duyệt thì được phép hủy.
+Sau khi nhấn "Hủy" và xác nhận hủy thì sẽ thông báo hủy đơn thành công và cập nhập lại trạng thái đơn hàng là "Đã hủy".</t>
+  </si>
+  <si>
+    <t>Sản phẩm được loại khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem đơn hàng theo từng trạng thái </t>
+  </si>
+  <si>
+    <t>Bảng DonHang
+Trạng thái : chờ duyệt, đã duyệt, đang giao, đã giao, đã hủy, giao hàng thất bại</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập thông tin đăng nhập</t>
+  </si>
+  <si>
+    <t>usename: ""
+mật khẩu: ""</t>
+  </si>
+  <si>
+    <t>Sản phẩm được thêm: SamSung A23
+Sản phẩm đã có: SamSung A23</t>
+  </si>
+  <si>
+    <t>Nếu đơn hàng ở trạng thái "Chờ duyệt", chọn biểu tượng duyệt.
+Thông báo đơn hàng duyệt thành công.
+Đơn hàng chuyển sang trạng thái "Đã duyệt"</t>
+  </si>
+  <si>
+    <t>Đơn hàng ở trạng thái "Đã duyệt", chọn biểu tượng duyệt
+Hiển thị danh sách nhân viên, chọn nhân viên giao hàng. Thông báo thành công.
+Đơn hàng cập nhật nhân viên giao, chuyển trạng thái đơn hàng thành "Đang giao"</t>
+  </si>
+  <si>
+    <t>Kiểm tra đăng nhập:
+Chưa đăng nhập: chuyển đến trang đăng nhập
+Đã đăng nhập: Kiểm tra khách hàng đã từng mua sản phẩm chưa. Nếu chưa thì không được đánh giá sản phẩm
+Hiển thị đánh giá phía dưới chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra đơn đặt hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>Thông báo mã đơn đặt hàng đã tồn tại. Quay về trang quản lý đặt hàng</t>
+  </si>
+  <si>
+    <t>Đơn đã lập: DDH001
+Đơn vừa thêm: DDH000</t>
+  </si>
+  <si>
+    <t>Kiểm tra chi tiết đơn đặt hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>Chi tiết đặt hàng đã lập: mã DDH: DDH001, maloaisp: SSA23
+Chi tiết đặt hàng vừa thêm: mã DDH: DDH001, maloaisp: SSA23</t>
+  </si>
+  <si>
+    <t>Thông báo đã tồn tại. Quay về trang quản lý đặt hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông tin rỗng</t>
+  </si>
+  <si>
+    <t>Mã phiếu nhập: ""</t>
+  </si>
+  <si>
+    <t>Mã PN đã có: PN001
+Mã PN vừa thêm: PN001</t>
+  </si>
+  <si>
+    <t>Hiện thông báo phiếu nhập đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiện thông báo mã phiếu nhập không được để trống</t>
+  </si>
+  <si>
+    <t>Kiểm tra trùng mã phiếu nhập</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Mã PN: PN001
+Mã DDH: DDH001
+Ngày lập: 20/01/2023
+Người lập: Trần Phước Dũng</t>
+  </si>
+  <si>
+    <t>Đơn hàng chưa duyệt: (…thông tin DH,trạng thái:"Chờ duyệt")
+Đơn hàng được duyệt: (…thông tin DH,trạng thái:"Đã duyệt")</t>
+  </si>
+  <si>
+    <t>Đơn hàng đã duyệt: (…thông tin DH,trạng thái:"Đã duyệt", mã NV:"")
+Đơn hàng được phân công: (…thông tin DH,trạng thái:"Đã duyệt", mã NV:NV02)</t>
+  </si>
+  <si>
+    <t>Đăng ký, Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập để trống</t>
+  </si>
+  <si>
+    <t>Để trống thông tin đăng ký</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>username viết liền không dấu</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập đúng</t>
+  </si>
+  <si>
+    <t>username sai: anh đạt
+username đúng: anhdat</t>
+  </si>
+  <si>
+    <t>usename: ""
+mật khẩu: ""
+địa chỉ: ""
+…</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra trùng username, CMND</t>
+  </si>
+  <si>
+    <t>Thông báo username, CMND đã được sử dụng</t>
+  </si>
+  <si>
+    <t>username: anhdat, CMND:123123123
+username: anhdat, CMND:123123123</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
 </sst>
 </file>
@@ -340,9 +547,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -365,13 +571,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -784,582 +1002,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F41"/>
+  <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="2" max="2" width="6" style="13" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F43" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
-        <v>6</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
-      <c r="C39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B40" s="10"/>
-      <c r="C40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
